--- a/Semana-1/files/fileExcelClase3.xlsx
+++ b/Semana-1/files/fileExcelClase3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Automation Anywhere Files\Automation Anywhere\My Tasks\Semana-1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382CDF1F-5EED-4DC7-A263-C43C51E89025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406FE625-74BB-44D0-814D-DB8BB6557A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
